--- a/excel/water.xlsx
+++ b/excel/water.xlsx
@@ -1,152 +1,450 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView windowWidth="19200" windowHeight="7665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="water" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frmae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>frame1</t>
+  </si>
+  <si>
+    <t>frmae2</t>
+  </si>
+  <si>
+    <t>frmae3</t>
+  </si>
+  <si>
+    <t>frmae4</t>
   </si>
   <si>
     <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>右上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>右下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>纹理数量</t>
   </si>
   <si>
     <t>图片纹理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水源深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>float</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>terminal_bl</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>terminal_br</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>terminal_tl</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>terminal_tr</t>
+  </si>
+  <si>
+    <t>01110001</t>
+  </si>
+  <si>
+    <t>T_tr_r</t>
+  </si>
+  <si>
+    <t>01010001</t>
+  </si>
+  <si>
+    <t>T_tr_single</t>
+  </si>
+  <si>
+    <t>T_tr_t</t>
+  </si>
+  <si>
+    <t>T_tl_t</t>
+  </si>
+  <si>
+    <t>01000101</t>
+  </si>
+  <si>
+    <t>T_tl_single</t>
+  </si>
+  <si>
+    <t>01000111</t>
+  </si>
+  <si>
+    <t>T_tl_l</t>
+  </si>
+  <si>
+    <t>01010100</t>
+  </si>
+  <si>
+    <t>T_br_single</t>
+  </si>
+  <si>
+    <t>01110100</t>
+  </si>
+  <si>
+    <t>T_br_r</t>
+  </si>
+  <si>
+    <t>01011100</t>
+  </si>
+  <si>
+    <t>T_br_b</t>
+  </si>
+  <si>
+    <t>00010101</t>
+  </si>
+  <si>
+    <t>T_bl_single</t>
+  </si>
+  <si>
+    <t>00010111</t>
+  </si>
+  <si>
+    <t>T_bl_l</t>
+  </si>
+  <si>
+    <t>00011101</t>
+  </si>
+  <si>
+    <t>T_bl_b</t>
+  </si>
+  <si>
+    <t>01000100</t>
+  </si>
+  <si>
+    <t>single_tr_bl_1</t>
+  </si>
+  <si>
+    <t>single_tr_bl_2</t>
+  </si>
+  <si>
+    <t>00010001</t>
+  </si>
+  <si>
+    <t>single_tl_br_1</t>
+  </si>
+  <si>
+    <t>single_tl_br_2</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>recessed_t</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>recessed_r</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>recessed_l</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>recessed_b</t>
+  </si>
+  <si>
+    <t>01111100</t>
+  </si>
+  <si>
+    <t>edge_tr_1</t>
+  </si>
+  <si>
+    <t>edge_tr_2</t>
+  </si>
+  <si>
+    <t>edge_tr_3</t>
+  </si>
+  <si>
+    <t>edge_tr_4</t>
+  </si>
+  <si>
+    <t>edge_tl_1</t>
+  </si>
+  <si>
+    <t>edge_tl_2</t>
+  </si>
+  <si>
+    <t>edge_tl_3</t>
+  </si>
+  <si>
+    <t>edge_tl_4</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <t>edge_br_1</t>
+  </si>
+  <si>
+    <t>edge_br_2</t>
+  </si>
+  <si>
+    <t>edge_br_3</t>
+  </si>
+  <si>
+    <t>edge_br_4</t>
+  </si>
+  <si>
+    <t>edge_bl_1</t>
+  </si>
+  <si>
+    <t>edge_bl_2</t>
+  </si>
+  <si>
+    <t>edge_bl_3</t>
+  </si>
+  <si>
+    <t>edge_bl_4</t>
+  </si>
+  <si>
+    <t>cross_t_r</t>
+  </si>
+  <si>
+    <t>cross_t_l</t>
+  </si>
+  <si>
+    <t>cross_t_b</t>
+  </si>
+  <si>
+    <t>cross_t</t>
+  </si>
+  <si>
+    <t>01010101</t>
+  </si>
+  <si>
+    <t>cross_single</t>
+  </si>
+  <si>
+    <t>01110101</t>
+  </si>
+  <si>
+    <t>cross_r</t>
+  </si>
+  <si>
+    <t>01110111</t>
+  </si>
+  <si>
+    <t>cross_l_r</t>
+  </si>
+  <si>
+    <t>01010111</t>
+  </si>
+  <si>
+    <t>cross_l</t>
+  </si>
+  <si>
+    <t>01111101</t>
+  </si>
+  <si>
+    <t>cross_b_r</t>
+  </si>
+  <si>
+    <t>01011111</t>
+  </si>
+  <si>
+    <t>cross_b_l</t>
+  </si>
+  <si>
+    <t>01011101</t>
+  </si>
+  <si>
+    <t>cross_b</t>
+  </si>
+  <si>
+    <t>01010000</t>
+  </si>
+  <si>
+    <t>corner_tr_br</t>
+  </si>
+  <si>
+    <t>01000001</t>
+  </si>
+  <si>
+    <t>corner_tl_tr</t>
+  </si>
+  <si>
+    <t>00000101</t>
+  </si>
+  <si>
+    <t>corner_tl_bl</t>
+  </si>
+  <si>
+    <t>00010100</t>
+  </si>
+  <si>
+    <t>corner_bl_br</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>bulge_t_1</t>
+  </si>
+  <si>
+    <t>bulge_t_2</t>
+  </si>
+  <si>
+    <t>bulge_t_3</t>
+  </si>
+  <si>
+    <t>bulge_t_4</t>
+  </si>
+  <si>
+    <t>bulge_r_1</t>
+  </si>
+  <si>
+    <t>bulge_r_2</t>
+  </si>
+  <si>
+    <t>bulge_r_3</t>
+  </si>
+  <si>
+    <t>bulge_r_4</t>
+  </si>
+  <si>
+    <t>bulge_l_1</t>
+  </si>
+  <si>
+    <t>bulge_l_2</t>
+  </si>
+  <si>
+    <t>bulge_l_3</t>
+  </si>
+  <si>
+    <t>bulge_l_4</t>
+  </si>
+  <si>
+    <t>bulge_b_1</t>
+  </si>
+  <si>
+    <t>bulge_b_2</t>
+  </si>
+  <si>
+    <t>bulge_b_3</t>
+  </si>
+  <si>
+    <t>bulge_b_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,24 +464,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,79 +554,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -325,16 +658,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -419,8 +756,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -458,60 +795,90 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="A3C2FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
       <a:bodyPr/>
       <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
     </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -538,95 +905,1979 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
         <v>23</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>11010001</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>11000101</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>11110001</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>11000111</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>11110101</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>11010111</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>11011101</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>11010101</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N48" t="s">
+        <v>125</v>
+      </c>
+      <c r="O48" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>128</v>
+      </c>
+      <c r="N49" t="s">
+        <v>129</v>
+      </c>
+      <c r="O49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N50" t="s">
+        <v>133</v>
+      </c>
+      <c r="O50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/water.xlsx
+++ b/excel/water.xlsx
@@ -430,9 +430,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -852,9 +852,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1741,7 +1739,6 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23"/>
       <c r="K23">
         <v>0</v>
       </c>
